--- a/newProject/KSH/mainapp/parsers/final_result.xlsx
+++ b/newProject/KSH/mainapp/parsers/final_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Какую школу вы посещаете?</t>
   </si>
@@ -34,6 +34,15 @@
     <t>Фамилия</t>
   </si>
   <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>В какую группу вы хотите?</t>
+  </si>
+  <si>
     <t>Рейтинг</t>
   </si>
   <si>
@@ -65,6 +74,30 @@
   </si>
   <si>
     <t>Клычков</t>
+  </si>
+  <si>
+    <t>Полина</t>
+  </si>
+  <si>
+    <t>Борис</t>
+  </si>
+  <si>
+    <t>Александр</t>
+  </si>
+  <si>
+    <t>Николаевна</t>
+  </si>
+  <si>
+    <t>Петрович</t>
+  </si>
+  <si>
+    <t>Юрьевич</t>
+  </si>
+  <si>
+    <t>Русский</t>
+  </si>
+  <si>
+    <t>Математика</t>
   </si>
 </sst>
 </file>
@@ -422,122 +455,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>52</v>
+      </c>
+      <c r="B2">
+        <v>79025823452</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>8800053535</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>88005353535</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>52</v>
-      </c>
-      <c r="C2">
-        <v>79025823452</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>21</v>
-      </c>
-      <c r="C3">
-        <v>8800053535</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>18</v>
-      </c>
-      <c r="C4">
-        <v>88005353535</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4">
-        <v>6</v>
-      </c>
-      <c r="I4">
+      <c r="K4">
         <v>9</v>
       </c>
     </row>
